--- a/寄存器.xlsx
+++ b/寄存器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8850" tabRatio="451"/>
+    <workbookView windowWidth="28080" windowHeight="14070" tabRatio="451"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>地址</t>
   </si>
@@ -151,13 +151,49 @@
     <t>12个传感器重量</t>
   </si>
   <si>
-    <t>12个传感器mv电压（uv*1000）</t>
+    <t>12个传感器mv电压（uV*1000）</t>
   </si>
   <si>
     <t>标定方式0的标定重量</t>
   </si>
   <si>
     <t>在标定方式0时，标定对应传感器重量时就由该寄存器下发</t>
+  </si>
+  <si>
+    <t>标总系数</t>
+  </si>
+  <si>
+    <t>在通过角差标定之后修改总系数</t>
+  </si>
+  <si>
+    <t>软件版本</t>
+  </si>
+  <si>
+    <t>软件版本号</t>
+  </si>
+  <si>
+    <t>带分度的实时重量</t>
+  </si>
+  <si>
+    <t>GPS或者北斗(暂时不用)</t>
+  </si>
+  <si>
+    <t>GPS上发时间间隔</t>
+  </si>
+  <si>
+    <t>设备运行情况上发时间间隔</t>
+  </si>
+  <si>
+    <t>6个字节数组</t>
+  </si>
+  <si>
+    <t>标定时间</t>
+  </si>
+  <si>
+    <t>将三个寄存器看成数组，数组格式[0]=年，[1]=月,[2]=日,[3]=时,[4]=分,[5]=秒</t>
+  </si>
+  <si>
+    <t>流程内延时</t>
   </si>
 </sst>
 </file>
@@ -166,8 +202,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -338,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +383,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,175 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,149 +716,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +866,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,6 +881,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1158,8 +1209,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1171,744 +1222,826 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
         <v>50000</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
         <v>50000</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
         <v>100</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>16</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
         <v>100</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
         <v>5000</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>22</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>29</v>
       </c>
-      <c r="B18" s="5">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="6">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>35</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>36</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>37</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>62</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>86</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>110</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>134</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
         <v>0</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="A27" s="6">
+        <v>158</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:6">
+      <c r="A28" s="8">
+        <v>169</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:6">
+      <c r="A29" s="8">
+        <v>161</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:6">
+      <c r="A30" s="8">
+        <v>163</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:6">
+      <c r="A31" s="8">
+        <v>164</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8">
+        <v>30</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:6">
+      <c r="A32" s="8">
+        <v>165</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8">
+        <v>60</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:6">
+      <c r="A33" s="8">
+        <v>166</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:6">
+      <c r="A34" s="8">
+        <v>169</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/寄存器.xlsx
+++ b/寄存器.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" tabRatio="451"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="451"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>地址</t>
   </si>
@@ -199,14 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,151 +224,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,198 +239,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -610,251 +280,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -893,58 +321,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -956,7 +410,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1205,15 +659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
@@ -1221,7 +674,7 @@
     <col min="6" max="6" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1259,7 +712,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -1277,7 +730,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>5</v>
       </c>
@@ -1295,7 +748,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>7</v>
       </c>
@@ -1315,7 +768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>8</v>
       </c>
@@ -1333,7 +786,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>9</v>
       </c>
@@ -1353,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>10</v>
       </c>
@@ -1371,7 +824,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>12</v>
       </c>
@@ -1391,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>14</v>
       </c>
@@ -1411,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>16</v>
       </c>
@@ -1431,7 +884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>18</v>
       </c>
@@ -1449,7 +902,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>19</v>
       </c>
@@ -1467,7 +920,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>20</v>
       </c>
@@ -1487,7 +940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>21</v>
       </c>
@@ -1505,7 +958,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>22</v>
       </c>
@@ -1525,7 +978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>24</v>
       </c>
@@ -1543,7 +996,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>29</v>
       </c>
@@ -1561,7 +1014,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>35</v>
       </c>
@@ -1581,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>36</v>
       </c>
@@ -1601,7 +1054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>37</v>
       </c>
@@ -1621,7 +1074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>38</v>
       </c>
@@ -1639,7 +1092,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>62</v>
       </c>
@@ -1657,7 +1110,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>86</v>
       </c>
@@ -1675,7 +1128,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>110</v>
       </c>
@@ -1693,7 +1146,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>134</v>
       </c>
@@ -1713,7 +1166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>158</v>
       </c>
@@ -1733,9 +1186,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B28" s="8">
         <v>2</v>
@@ -1751,7 +1204,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>161</v>
       </c>
@@ -1769,7 +1222,7 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>163</v>
       </c>
@@ -1787,7 +1240,7 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>164</v>
       </c>
@@ -1805,7 +1258,7 @@
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>165</v>
       </c>
@@ -1823,7 +1276,7 @@
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>166</v>
       </c>
@@ -1841,7 +1294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>169</v>
       </c>
@@ -1859,7 +1312,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1867,7 +1320,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1875,7 +1328,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1883,7 +1336,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1891,7 +1344,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1899,7 +1352,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1907,7 +1360,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1915,7 +1368,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1923,7 +1376,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1931,7 +1384,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1939,7 +1392,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1947,7 +1400,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1955,7 +1408,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1963,7 +1416,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1971,7 +1424,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1979,7 +1432,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1987,7 +1440,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1995,7 +1448,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2003,7 +1456,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2011,7 +1464,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2019,7 +1472,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2027,7 +1480,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2035,7 +1488,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2044,7 +1497,7 @@
       <c r="F57" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/寄存器.xlsx
+++ b/寄存器.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="451"/>
+    <workbookView windowWidth="19095" windowHeight="8850" tabRatio="451"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>地址</t>
   </si>
@@ -94,13 +94,13 @@
     <t>单位为秒</t>
   </si>
   <si>
-    <t>服务器端口</t>
+    <t>服务器端口(厂家)</t>
   </si>
   <si>
     <t>0xfffffff</t>
   </si>
   <si>
-    <t>服务器ip</t>
+    <t>服务器ip(厂家)</t>
   </si>
   <si>
     <t>使用u32保持ip</t>
@@ -194,13 +194,46 @@
   </si>
   <si>
     <t>流程内延时</t>
+  </si>
+  <si>
+    <t>服务器端口(客户)</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>服务器ip(客户)</t>
+  </si>
+  <si>
+    <t>只读</t>
+  </si>
+  <si>
+    <t>业务总量</t>
+  </si>
+  <si>
+    <t>业务单次重量</t>
+  </si>
+  <si>
+    <t>业务排水重量</t>
+  </si>
+  <si>
+    <t>60秒</t>
+  </si>
+  <si>
+    <t>ACC断电延时时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +257,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +410,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -280,13 +637,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +896,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -314,91 +916,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,7 +989,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -659,708 +1238,769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="$A36:$XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
     <col min="6" max="6" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6">
         <v>50000</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
         <v>50000</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="8">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
         <v>100</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="8">
         <v>16</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
         <v>100</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="8">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
         <v>21</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8889</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
         <v>24</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
         <v>29</v>
       </c>
-      <c r="B18" s="6">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
         <v>35</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+    <row r="20" spans="1:6">
+      <c r="A20" s="7">
         <v>36</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+    <row r="21" spans="1:6">
+      <c r="A21" s="7">
         <v>37</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+    <row r="22" spans="1:6">
+      <c r="A22" s="7">
         <v>38</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7">
         <v>86</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
         <v>0</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7">
         <v>110</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
         <v>0</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7">
         <v>134</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+    <row r="27" spans="1:6">
+      <c r="A27" s="7">
         <v>158</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+    <row r="28" s="3" customFormat="1" spans="1:6">
+      <c r="A28" s="9">
         <v>159</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>2</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:6">
+      <c r="A29" s="9">
         <v>161</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>2</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:6">
+      <c r="A30" s="9">
         <v>163</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:6">
+      <c r="A31" s="9">
         <v>164</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="9">
         <v>30</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:6">
+      <c r="A32" s="9">
         <v>165</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="9">
         <v>1</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
         <v>60</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:6">
+      <c r="A33" s="9">
         <v>166</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="9">
         <v>3</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+    <row r="34" s="3" customFormat="1" spans="1:6">
+      <c r="A34" s="9">
         <v>169</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="9">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="C34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9">
         <v>20</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
+        <v>170</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>8080</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7">
+        <v>171</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10">
+        <v>173</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="10">
+        <v>175</v>
+      </c>
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="10">
+        <v>177</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" s="4" customFormat="1" spans="1:6">
+      <c r="A40" s="11">
+        <v>179</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1368,7 +2008,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1376,7 +2016,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1384,7 +2024,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1392,7 +2032,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1400,7 +2040,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1408,7 +2048,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1416,7 +2056,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1424,7 +2064,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1432,7 +2072,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1440,7 +2080,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1448,7 +2088,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1456,7 +2096,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1464,7 +2104,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1472,7 +2112,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1480,7 +2120,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1488,7 +2128,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1497,7 +2137,7 @@
       <c r="F57" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/寄存器.xlsx
+++ b/寄存器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8850" tabRatio="451"/>
+    <workbookView windowWidth="19770" windowHeight="8970" tabRatio="451"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>额定重量</t>
   </si>
   <si>
-    <t xml:space="preserve">限载重量 </t>
+    <t>限载重量</t>
   </si>
   <si>
     <t>实时处理之后的重量,不带分度值</t>
@@ -130,7 +130,8 @@
     <t>方式1时标定步骤</t>
   </si>
   <si>
-    <t>标定方式1时，指定标定的传感器号，当所有传感器加载砝码之后，往该寄存器发送0x8000，开始计算系数</t>
+    <t>标定方式1时，指定标定的传感器号，当所有传感器加载砝码之后，往该寄存器发送0x8000，开始计算系数并结束标定流程.
+发送0x8001,为直接结束标定流程。</t>
   </si>
   <si>
     <t>方式0时的标定零点</t>
@@ -257,36 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -306,6 +277,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +319,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,14 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,22 +401,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,193 +411,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,16 +645,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -663,21 +670,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -688,6 +680,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,21 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -743,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,137 +762,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,10 +902,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,16 +920,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1252,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="$A36:$XFD36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1614,23 +1624,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7">
+    <row r="20" s="3" customFormat="1" ht="32" customHeight="1" spans="1:6">
+      <c r="A20" s="9">
         <v>36</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1766,131 +1776,131 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:6">
-      <c r="A28" s="9">
+    <row r="28" s="4" customFormat="1" spans="1:6">
+      <c r="A28" s="12">
         <v>159</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="12">
         <v>2</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:6">
-      <c r="A29" s="9">
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:6">
+      <c r="A29" s="12">
         <v>161</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="12">
         <v>2</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="12">
         <v>0</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
-      <c r="A30" s="9">
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:6">
+      <c r="A30" s="12">
         <v>163</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="12">
         <v>0</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:6">
-      <c r="A31" s="9">
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:6">
+      <c r="A31" s="12">
         <v>164</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="12">
         <v>1</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="12">
         <v>30</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:6">
-      <c r="A32" s="9">
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:6">
+      <c r="A32" s="12">
         <v>165</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="12">
         <v>1</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="12">
         <v>60</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:6">
-      <c r="A33" s="9">
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:6">
+      <c r="A33" s="12">
         <v>166</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <v>3</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:6">
-      <c r="A34" s="9">
+    <row r="34" s="4" customFormat="1" spans="1:6">
+      <c r="A34" s="12">
         <v>169</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="12">
         <v>1</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="12">
         <v>20</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7">
@@ -1929,212 +1939,212 @@
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="10">
+      <c r="A37" s="13">
         <v>173</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="13">
         <v>2</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="10">
+      <c r="A38" s="13">
         <v>175</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="13">
         <v>2</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="10">
+      <c r="A39" s="13">
         <v>177</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="13">
         <v>2</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:6">
-      <c r="A40" s="11">
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13">
         <v>179</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="13">
         <v>1</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/寄存器.xlsx
+++ b/寄存器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8970" tabRatio="451"/>
+    <workbookView windowWidth="20385" windowHeight="9390" tabRatio="451"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>地址</t>
   </si>
@@ -161,7 +161,7 @@
     <t>在标定方式0时，标定对应传感器重量时就由该寄存器下发</t>
   </si>
   <si>
-    <t>标总系数</t>
+    <t>标总系数动作</t>
   </si>
   <si>
     <t>在通过角差标定之后修改总系数</t>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>ACC断电延时时间</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>设备操作</t>
+  </si>
+  <si>
+    <t>写1表示复位设备</t>
   </si>
 </sst>
 </file>
@@ -230,9 +239,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -258,6 +267,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -277,13 +316,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,50 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +376,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -423,6 +432,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,6 +474,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,12 +510,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,109 +558,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,6 +654,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -660,15 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,36 +704,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +728,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -750,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,137 +771,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,9 +927,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1261,7 +1267,7 @@
     <col min="2" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="113.625" customWidth="1"/>
+    <col min="6" max="6" width="100.95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1631,16 +1637,16 @@
       <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1777,130 +1783,130 @@
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:6">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>159</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:6">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>161</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="11">
         <v>0</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:6">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>163</v>
       </c>
-      <c r="B30" s="12">
-        <v>1</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="11">
         <v>0</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>164</v>
       </c>
-      <c r="B31" s="12">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="11">
         <v>30</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:6">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>165</v>
       </c>
-      <c r="B32" s="12">
-        <v>1</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="11">
         <v>60</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:6">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>166</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:6">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>169</v>
       </c>
-      <c r="B34" s="12">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="11">
         <v>20</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7">
@@ -1939,212 +1945,224 @@
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>173</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>2</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>175</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>177</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>2</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>179</v>
       </c>
-      <c r="B40" s="13">
-        <v>1</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="A41" s="12">
+        <v>180</v>
+      </c>
+      <c r="B41" s="12">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
